--- a/biology/Zoologie/Cephalotes_jamaicensis/Cephalotes_jamaicensis.xlsx
+++ b/biology/Zoologie/Cephalotes_jamaicensis/Cephalotes_jamaicensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes jamaicensis est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes jamaicensis est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est native de Jamaique[3]. Le spécimen qui a permis l'identification de l'espèce (photos) a été trouvé à Kingston. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est native de Jamaique. Le spécimen qui a permis l'identification de l'espèce (photos) a été trouvé à Kingston. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste suisse Forel en 1922.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Diversity and Adaptation in the Ant Genus Cephalotes Past and Present (Hymenoptera, Formicidae)
 </t>
